--- a/biology/Zoologie/Gandanameno_purcelli/Gandanameno_purcelli.xlsx
+++ b/biology/Zoologie/Gandanameno_purcelli/Gandanameno_purcelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gandanameno purcelli est une espèce d'araignées aranéomorphes de la famille des Eresidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gandanameno purcelli est une espèce d'araignées aranéomorphes de la famille des Eresidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 17,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 17,5 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de William Frederick Purcell[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de William Frederick Purcell.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tucker, 1920 : Contributions to the South African Arachnid Fauna. II. On some new South African spiders of the families Barychelidae, Dipluridae, Eresidae, Zodariidae, Heracliidae, Urocteidae, Clubionidae. Annals of the South African Museum, vol. 17, p. 439-488 (texte intégral).</t>
         </is>
